--- a/Mifos Automation Excels/Loan Product/2596-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%LOANAMT+INT-MORE-AMT-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2596-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%LOANAMT+INT-MORE-AMT-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>productname</t>
   </si>
@@ -230,10 +230,13 @@
     <t>addoverduecharges</t>
   </si>
   <si>
-    <t>2596-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%LOANAMT+INT-MORE-AMT</t>
-  </si>
-  <si>
     <t>OveerdueFees-%LoanAmount+Interest</t>
+  </si>
+  <si>
+    <t>2596-RBI-EI-DB-DL-REC-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%LOANAMT+INT-MORE-AMT-1st</t>
+  </si>
+  <si>
+    <t>259w</t>
   </si>
 </sst>
 </file>
@@ -617,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -632,15 +635,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>2596</v>
+      <c r="B2" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -880,7 +883,7 @@
         <v>69</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1020,7 +1023,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
